--- a/postprocessing/fragment_analysis/TMMC/uf_fragments_clusters_non_drug.xlsx
+++ b/postprocessing/fragment_analysis/TMMC/uf_fragments_clusters_non_drug.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitic\Documents\GitLab\GitLab-Thesis\gnn-hiv-example-model\data\fragment_analysis\TMMC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Tesi\DrugLikeness-prediction-and-Fragment-analysis\postprocessing\fragment_analysis\TMMC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6495D42A-F6F4-410B-89B4-BF30F42791E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D587B1-587D-451F-B84E-02937CCFBB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fragments Clusters" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="1484">
   <si>
     <t>SMILES</t>
   </si>
@@ -4495,8 +4495,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -4524,11 +4532,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -30496,13 +30505,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M778"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="62.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="62.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -30521,11 +30530,9 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="s">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -30542,12 +30549,9 @@
         <f t="shared" ref="E2:E65" si="0">D2*100/40760</f>
         <v>15.910206084396467</v>
       </c>
-      <c r="M2">
-        <f>SUM(D:D)</f>
-        <v>40760</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -30565,7 +30569,7 @@
         <v>13.483807654563297</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -30583,7 +30587,7 @@
         <v>13.081452404317959</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -30601,7 +30605,7 @@
         <v>10.20117762512267</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -30619,7 +30623,7 @@
         <v>5.8022571148184499</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -30637,7 +30641,7 @@
         <v>3.5402355250245336</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>742</v>
       </c>
@@ -30655,7 +30659,7 @@
         <v>2.9293424926398428</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -30673,7 +30677,7 @@
         <v>2.81648675171737</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -30691,7 +30695,7 @@
         <v>1.7762512266928361</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -30709,7 +30713,7 @@
         <v>1.5799803729146222</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -30727,7 +30731,7 @@
         <v>1.5652600588812562</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -30745,7 +30749,7 @@
         <v>1.4597644749754661</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -30763,7 +30767,7 @@
         <v>1.4548577036310109</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>62</v>
       </c>
@@ -30781,7 +30785,7 @@
         <v>1.0966633954857703</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -30799,7 +30803,7 @@
         <v>0.78508341511285573</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -30817,7 +30821,7 @@
         <v>0.76790971540726205</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -30835,7 +30839,7 @@
         <v>0.7654563297350343</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>182</v>
       </c>
@@ -30853,7 +30857,7 @@
         <v>0.76300294406280667</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>144</v>
       </c>
@@ -30871,7 +30875,7 @@
         <v>0.72865554465161919</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -30889,7 +30893,7 @@
         <v>0.63052011776251227</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -30907,7 +30911,7 @@
         <v>0.53483807654563298</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -30925,7 +30929,7 @@
         <v>0.52257114818449457</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>633</v>
       </c>
@@ -30943,7 +30947,7 @@
         <v>0.50539744847890089</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>124</v>
       </c>
@@ -30961,7 +30965,7 @@
         <v>0.46368989205103039</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>156</v>
       </c>
@@ -30979,7 +30983,7 @@
         <v>0.436702649656526</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>178</v>
       </c>
@@ -30997,7 +31001,7 @@
         <v>0.36310107948969578</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -31015,7 +31019,7 @@
         <v>0.35328753680078506</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>722</v>
       </c>
@@ -31033,7 +31037,7 @@
         <v>0.34102060843964671</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>360</v>
       </c>
@@ -31051,7 +31055,7 @@
         <v>0.33856722276741902</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -31069,7 +31073,7 @@
         <v>0.32384690873405297</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>164</v>
       </c>
@@ -31087,7 +31091,7 @@
         <v>0.32139352306182534</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>302</v>
       </c>
@@ -31105,7 +31109,7 @@
         <v>0.31648675171736995</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>267</v>
       </c>
@@ -31123,7 +31127,7 @@
         <v>0.30912659470068693</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>122</v>
       </c>
@@ -31141,7 +31145,7 @@
         <v>0.30667320902845929</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -31159,7 +31163,7 @@
         <v>0.26741903827281649</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>277</v>
       </c>
@@ -31177,7 +31181,7 @@
         <v>0.26251226692836116</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>247</v>
       </c>
@@ -31195,7 +31199,7 @@
         <v>0.22325809617271836</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>152</v>
       </c>
@@ -31213,7 +31217,7 @@
         <v>0.21099116781157998</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>382</v>
       </c>
@@ -31231,7 +31235,7 @@
         <v>0.21099116781157998</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -31249,7 +31253,7 @@
         <v>0.20853778213935231</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>180</v>
       </c>
@@ -31267,7 +31271,7 @@
         <v>0.20853778213935231</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>198</v>
       </c>
@@ -31285,7 +31289,7 @@
         <v>0.20608439646712462</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -31303,7 +31307,7 @@
         <v>0.1987242394504416</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>172</v>
       </c>
@@ -31321,7 +31325,7 @@
         <v>0.16683022571148184</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>693</v>
       </c>
@@ -31339,7 +31343,7 @@
         <v>0.16437684003925418</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -31357,7 +31361,7 @@
         <v>0.16192345436702649</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>162</v>
       </c>
@@ -31375,7 +31379,7 @@
         <v>0.15701668302257116</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>192</v>
       </c>
@@ -31393,7 +31397,7 @@
         <v>0.1521099116781158</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -31411,7 +31415,7 @@
         <v>0.14965652600588814</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>194</v>
       </c>
@@ -31429,7 +31433,7 @@
         <v>0.14720314033366044</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>226</v>
       </c>
@@ -31447,7 +31451,7 @@
         <v>0.14720314033366044</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>126</v>
       </c>
@@ -31465,7 +31469,7 @@
         <v>0.14474975466143278</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -31483,7 +31487,7 @@
         <v>0.13984298331697742</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>364</v>
       </c>
@@ -31501,7 +31505,7 @@
         <v>0.1324828263002944</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -31519,7 +31523,7 @@
         <v>0.13002944062806673</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>291</v>
       </c>
@@ -31537,7 +31541,7 @@
         <v>0.13002944062806673</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -31555,7 +31559,7 @@
         <v>0.12757605495583907</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>237</v>
       </c>
@@ -31573,7 +31577,7 @@
         <v>0.12512266928361138</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -31591,7 +31595,7 @@
         <v>0.12266928361138371</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>470</v>
       </c>
@@ -31609,7 +31613,7 @@
         <v>0.12021589793915603</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>33</v>
       </c>
@@ -31627,7 +31631,7 @@
         <v>0.10794896957801767</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -31645,7 +31649,7 @@
         <v>0.10549558390578999</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>295</v>
       </c>
@@ -31663,7 +31667,7 @@
         <v>0.10549558390578999</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>35</v>
       </c>
@@ -31681,7 +31685,7 @@
         <v>0.10304219823356231</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>265</v>
       </c>
@@ -31699,7 +31703,7 @@
         <v>0.10304219823356231</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>681</v>
       </c>
@@ -31717,7 +31721,7 @@
         <v>0.10058881256133465</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>605</v>
       </c>
@@ -31735,7 +31739,7 @@
         <v>9.8135426889106966E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>961</v>
       </c>
@@ -31753,7 +31757,7 @@
         <v>9.8135426889106966E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1121</v>
       </c>
@@ -31771,7 +31775,7 @@
         <v>9.8135426889106966E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
@@ -31789,7 +31793,7 @@
         <v>9.5682041216879288E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>243</v>
       </c>
@@ -31807,7 +31811,7 @@
         <v>9.3228655544651623E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1123</v>
       </c>
@@ -31825,7 +31829,7 @@
         <v>9.3228655544651623E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -31843,7 +31847,7 @@
         <v>9.0775269872423944E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>366</v>
       </c>
@@ -31861,7 +31865,7 @@
         <v>9.0775269872423944E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>202</v>
       </c>
@@ -31879,7 +31883,7 @@
         <v>8.5868498527968601E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>255</v>
       </c>
@@ -31897,7 +31901,7 @@
         <v>8.5868498527968601E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -31915,7 +31919,7 @@
         <v>8.3415112855740922E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>257</v>
       </c>
@@ -31933,7 +31937,7 @@
         <v>8.3415112855740922E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -31951,7 +31955,7 @@
         <v>7.60549558390579E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>609</v>
       </c>
@@ -31969,7 +31973,7 @@
         <v>7.60549558390579E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>641</v>
       </c>
@@ -31987,7 +31991,7 @@
         <v>7.60549558390579E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>29</v>
       </c>
@@ -32005,7 +32009,7 @@
         <v>7.3601570166830221E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -32023,7 +32027,7 @@
         <v>7.3601570166830221E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>283</v>
       </c>
@@ -32041,7 +32045,7 @@
         <v>7.3601570166830221E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>971</v>
       </c>
@@ -32059,7 +32063,7 @@
         <v>7.3601570166830221E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>68</v>
       </c>
@@ -32077,7 +32081,7 @@
         <v>7.1148184494602557E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>647</v>
       </c>
@@ -32095,7 +32099,7 @@
         <v>7.1148184494602557E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>134</v>
       </c>
@@ -32113,7 +32117,7 @@
         <v>6.8694798822374878E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>235</v>
       </c>
@@ -32131,7 +32135,7 @@
         <v>6.8694798822374878E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>402</v>
       </c>
@@ -32149,7 +32153,7 @@
         <v>6.8694798822374878E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -32167,7 +32171,7 @@
         <v>6.6241413150147199E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -32185,7 +32189,7 @@
         <v>6.6241413150147199E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>667</v>
       </c>
@@ -32203,7 +32207,7 @@
         <v>6.6241413150147199E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>322</v>
       </c>
@@ -32221,7 +32225,7 @@
         <v>6.3788027477919534E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>57</v>
       </c>
@@ -32239,7 +32243,7 @@
         <v>6.1334641805691856E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>66</v>
       </c>
@@ -32257,7 +32261,7 @@
         <v>6.1334641805691856E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>492</v>
       </c>
@@ -32275,7 +32279,7 @@
         <v>6.1334641805691856E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>738</v>
       </c>
@@ -32293,7 +32297,7 @@
         <v>6.1334641805691856E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>404</v>
       </c>
@@ -32311,7 +32315,7 @@
         <v>5.8881256133464184E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>841</v>
       </c>
@@ -32329,7 +32333,7 @@
         <v>5.3974484789008834E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>843</v>
       </c>
@@ -32347,7 +32351,7 @@
         <v>5.3974484789008834E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1194</v>
       </c>
@@ -32365,7 +32369,7 @@
         <v>5.3974484789008834E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>176</v>
       </c>
@@ -32383,7 +32387,7 @@
         <v>5.1521099116781155E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>561</v>
       </c>
@@ -32401,7 +32405,7 @@
         <v>5.1521099116781155E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>597</v>
       </c>
@@ -32419,7 +32423,7 @@
         <v>5.1521099116781155E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>687</v>
       </c>
@@ -32437,7 +32441,7 @@
         <v>5.1521099116781155E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>691</v>
       </c>
@@ -32455,7 +32459,7 @@
         <v>5.1521099116781155E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>833</v>
       </c>
@@ -32473,7 +32477,7 @@
         <v>5.1521099116781155E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1100</v>
       </c>
@@ -32491,7 +32495,7 @@
         <v>5.1521099116781155E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>190</v>
       </c>
@@ -32509,7 +32513,7 @@
         <v>4.9067713444553483E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>70</v>
       </c>
@@ -32527,7 +32531,7 @@
         <v>4.6614327772325811E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -32545,7 +32549,7 @@
         <v>4.6614327772325811E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>86</v>
       </c>
@@ -32563,7 +32567,7 @@
         <v>4.6614327772325811E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -32581,7 +32585,7 @@
         <v>4.6614327772325811E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>394</v>
       </c>
@@ -32599,7 +32603,7 @@
         <v>4.6614327772325811E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>80</v>
       </c>
@@ -32617,7 +32621,7 @@
         <v>4.4160942100098133E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>589</v>
       </c>
@@ -32635,7 +32639,7 @@
         <v>4.4160942100098133E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>90</v>
       </c>
@@ -32653,7 +32657,7 @@
         <v>4.1707556427870461E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>293</v>
       </c>
@@ -32671,7 +32675,7 @@
         <v>4.1707556427870461E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>506</v>
       </c>
@@ -32689,7 +32693,7 @@
         <v>4.1707556427870461E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>150</v>
       </c>
@@ -32707,7 +32711,7 @@
         <v>3.9254170755642789E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>184</v>
       </c>
@@ -32725,7 +32729,7 @@
         <v>3.9254170755642789E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>448</v>
       </c>
@@ -32743,7 +32747,7 @@
         <v>3.9254170755642789E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>579</v>
       </c>
@@ -32761,7 +32765,7 @@
         <v>3.9254170755642789E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>796</v>
       </c>
@@ -32779,7 +32783,7 @@
         <v>3.9254170755642789E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>881</v>
       </c>
@@ -32797,7 +32801,7 @@
         <v>3.9254170755642789E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>128</v>
       </c>
@@ -32815,7 +32819,7 @@
         <v>3.6800785083415111E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>249</v>
       </c>
@@ -32833,7 +32837,7 @@
         <v>3.6800785083415111E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>384</v>
       </c>
@@ -32851,7 +32855,7 @@
         <v>3.6800785083415111E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>396</v>
       </c>
@@ -32869,7 +32873,7 @@
         <v>3.6800785083415111E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>484</v>
       </c>
@@ -32887,7 +32891,7 @@
         <v>3.6800785083415111E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>591</v>
       </c>
@@ -32905,7 +32909,7 @@
         <v>3.6800785083415111E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>196</v>
       </c>
@@ -32923,7 +32927,7 @@
         <v>3.4347399411187439E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>251</v>
       </c>
@@ -32941,7 +32945,7 @@
         <v>3.4347399411187439E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>287</v>
       </c>
@@ -32959,7 +32963,7 @@
         <v>3.4347399411187439E-2</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1240</v>
       </c>
@@ -32977,7 +32981,7 @@
         <v>3.4347399411187439E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -32995,7 +32999,7 @@
         <v>3.1894013738959767E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>216</v>
       </c>
@@ -33013,7 +33017,7 @@
         <v>3.1894013738959767E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>351</v>
       </c>
@@ -33031,7 +33035,7 @@
         <v>3.1894013738959767E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>625</v>
       </c>
@@ -33049,7 +33053,7 @@
         <v>3.1894013738959767E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1224</v>
       </c>
@@ -33067,7 +33071,7 @@
         <v>3.1894013738959767E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1254</v>
       </c>
@@ -33085,7 +33089,7 @@
         <v>3.1894013738959767E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>166</v>
       </c>
@@ -33103,7 +33107,7 @@
         <v>2.9440628066732092E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>419</v>
       </c>
@@ -33121,7 +33125,7 @@
         <v>2.9440628066732092E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>472</v>
       </c>
@@ -33139,7 +33143,7 @@
         <v>2.9440628066732092E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>585</v>
       </c>
@@ -33157,7 +33161,7 @@
         <v>2.9440628066732092E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>909</v>
       </c>
@@ -33175,7 +33179,7 @@
         <v>2.9440628066732092E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1192</v>
       </c>
@@ -33193,7 +33197,7 @@
         <v>2.9440628066732092E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>186</v>
       </c>
@@ -33211,7 +33215,7 @@
         <v>2.6987242394504417E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>224</v>
       </c>
@@ -33229,7 +33233,7 @@
         <v>2.6987242394504417E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -33247,7 +33251,7 @@
         <v>2.6987242394504417E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>635</v>
       </c>
@@ -33265,7 +33269,7 @@
         <v>2.6987242394504417E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>669</v>
       </c>
@@ -33283,7 +33287,7 @@
         <v>2.6987242394504417E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1137</v>
       </c>
@@ -33301,7 +33305,7 @@
         <v>2.6987242394504417E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>212</v>
       </c>
@@ -33319,7 +33323,7 @@
         <v>2.4533856722276742E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>263</v>
       </c>
@@ -33337,7 +33341,7 @@
         <v>2.4533856722276742E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>482</v>
       </c>
@@ -33355,7 +33359,7 @@
         <v>2.4533856722276742E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>790</v>
       </c>
@@ -33373,7 +33377,7 @@
         <v>2.4533856722276742E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>218</v>
       </c>
@@ -33391,7 +33395,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>324</v>
       </c>
@@ -33409,7 +33413,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>378</v>
       </c>
@@ -33427,7 +33431,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>388</v>
       </c>
@@ -33445,7 +33449,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>601</v>
       </c>
@@ -33463,7 +33467,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>617</v>
       </c>
@@ -33481,7 +33485,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>701</v>
       </c>
@@ -33499,7 +33503,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>705</v>
       </c>
@@ -33517,7 +33521,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>883</v>
       </c>
@@ -33535,7 +33539,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>1017</v>
       </c>
@@ -33553,7 +33557,7 @@
         <v>2.2080471050049066E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -33571,7 +33575,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>74</v>
       </c>
@@ -33589,7 +33593,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>92</v>
       </c>
@@ -33607,7 +33611,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>136</v>
       </c>
@@ -33625,7 +33629,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>168</v>
       </c>
@@ -33643,7 +33647,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>214</v>
       </c>
@@ -33661,7 +33665,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>269</v>
       </c>
@@ -33679,7 +33683,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>374</v>
       </c>
@@ -33697,7 +33701,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>386</v>
       </c>
@@ -33715,7 +33719,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>466</v>
       </c>
@@ -33733,7 +33737,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>689</v>
       </c>
@@ -33751,7 +33755,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>726</v>
       </c>
@@ -33769,7 +33773,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>837</v>
       </c>
@@ -33787,7 +33791,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>1041</v>
       </c>
@@ -33805,7 +33809,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>1043</v>
       </c>
@@ -33823,7 +33827,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>1055</v>
       </c>
@@ -33841,7 +33845,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>1085</v>
       </c>
@@ -33859,7 +33863,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>1214</v>
       </c>
@@ -33877,7 +33881,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>1260</v>
       </c>
@@ -33895,7 +33899,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>1313</v>
       </c>
@@ -33913,7 +33917,7 @@
         <v>1.9627085377821395E-2</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -33931,7 +33935,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>140</v>
       </c>
@@ -33949,7 +33953,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>241</v>
       </c>
@@ -33967,7 +33971,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>281</v>
       </c>
@@ -33985,7 +33989,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>320</v>
       </c>
@@ -34003,7 +34007,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>392</v>
       </c>
@@ -34021,7 +34025,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>408</v>
       </c>
@@ -34039,7 +34043,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>458</v>
       </c>
@@ -34057,7 +34061,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>513</v>
       </c>
@@ -34075,7 +34079,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>603</v>
       </c>
@@ -34093,7 +34097,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>611</v>
       </c>
@@ -34111,7 +34115,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>905</v>
       </c>
@@ -34129,7 +34133,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>1005</v>
       </c>
@@ -34147,7 +34151,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>1033</v>
       </c>
@@ -34165,7 +34169,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>1081</v>
       </c>
@@ -34183,7 +34187,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>1234</v>
       </c>
@@ -34201,7 +34205,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>100</v>
       </c>
@@ -34219,7 +34223,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>230</v>
       </c>
@@ -34237,7 +34241,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>253</v>
       </c>
@@ -34255,7 +34259,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>259</v>
       </c>
@@ -34273,7 +34277,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>297</v>
       </c>
@@ -34291,7 +34295,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>421</v>
       </c>
@@ -34309,7 +34313,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>490</v>
       </c>
@@ -34327,7 +34331,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>581</v>
       </c>
@@ -34345,7 +34349,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>583</v>
       </c>
@@ -34363,7 +34367,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>593</v>
       </c>
@@ -34381,7 +34385,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>763</v>
       </c>
@@ -34399,7 +34403,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>776</v>
       </c>
@@ -34417,7 +34421,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>959</v>
       </c>
@@ -34435,7 +34439,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>1049</v>
       </c>
@@ -34453,7 +34457,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>1051</v>
       </c>
@@ -34471,7 +34475,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>1068</v>
       </c>
@@ -34489,7 +34493,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>1188</v>
       </c>
@@ -34507,7 +34511,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>1202</v>
       </c>
@@ -34525,7 +34529,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>88</v>
       </c>
@@ -34543,7 +34547,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>208</v>
       </c>
@@ -34561,7 +34565,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>210</v>
       </c>
@@ -34579,7 +34583,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>222</v>
       </c>
@@ -34597,7 +34601,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>380</v>
       </c>
@@ -34615,7 +34619,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>456</v>
       </c>
@@ -34633,7 +34637,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>529</v>
       </c>
@@ -34651,7 +34655,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>653</v>
       </c>
@@ -34669,7 +34673,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>685</v>
       </c>
@@ -34687,7 +34691,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>707</v>
       </c>
@@ -34705,7 +34709,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>709</v>
       </c>
@@ -34723,7 +34727,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>750</v>
       </c>
@@ -34741,7 +34745,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>794</v>
       </c>
@@ -34759,7 +34763,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>808</v>
       </c>
@@ -34777,7 +34781,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>822</v>
       </c>
@@ -34795,7 +34799,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>853</v>
       </c>
@@ -34813,7 +34817,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>907</v>
       </c>
@@ -34831,7 +34835,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>942</v>
       </c>
@@ -34849,7 +34853,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1003</v>
       </c>
@@ -34867,7 +34871,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1027</v>
       </c>
@@ -34885,7 +34889,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1039</v>
       </c>
@@ -34903,7 +34907,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1075</v>
       </c>
@@ -34921,7 +34925,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1147</v>
       </c>
@@ -34939,7 +34943,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1164</v>
       </c>
@@ -34957,7 +34961,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1182</v>
       </c>
@@ -34975,7 +34979,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1279</v>
       </c>
@@ -34993,7 +34997,7 @@
         <v>1.2266928361138371E-2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>138</v>
       </c>
@@ -35011,7 +35015,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>174</v>
       </c>
@@ -35029,7 +35033,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>316</v>
       </c>
@@ -35047,7 +35051,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>353</v>
       </c>
@@ -35065,7 +35069,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>413</v>
       </c>
@@ -35083,7 +35087,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>427</v>
       </c>
@@ -35101,7 +35105,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>431</v>
       </c>
@@ -35119,7 +35123,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>443</v>
       </c>
@@ -35137,7 +35141,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>476</v>
       </c>
@@ -35155,7 +35159,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>525</v>
       </c>
@@ -35173,7 +35177,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>537</v>
       </c>
@@ -35191,7 +35195,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>613</v>
       </c>
@@ -35209,7 +35213,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>657</v>
       </c>
@@ -35227,7 +35231,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>699</v>
       </c>
@@ -35245,7 +35249,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>730</v>
       </c>
@@ -35263,7 +35267,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>759</v>
       </c>
@@ -35281,7 +35285,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>812</v>
       </c>
@@ -35299,7 +35303,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>839</v>
       </c>
@@ -35317,7 +35321,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>870</v>
       </c>
@@ -35335,7 +35339,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>948</v>
       </c>
@@ -35353,7 +35357,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>994</v>
       </c>
@@ -35371,7 +35375,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1019</v>
       </c>
@@ -35389,7 +35393,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1063</v>
       </c>
@@ -35407,7 +35411,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1102</v>
       </c>
@@ -35425,7 +35429,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1143</v>
       </c>
@@ -35443,7 +35447,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1156</v>
       </c>
@@ -35461,7 +35465,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1180</v>
       </c>
@@ -35479,7 +35483,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1186</v>
       </c>
@@ -35497,7 +35501,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1200</v>
       </c>
@@ -35515,7 +35519,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1301</v>
       </c>
@@ -35533,7 +35537,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1337</v>
       </c>
@@ -35551,7 +35555,7 @@
         <v>9.8135426889106973E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -35569,7 +35573,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>158</v>
       </c>
@@ -35587,7 +35591,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>220</v>
       </c>
@@ -35605,7 +35609,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>228</v>
       </c>
@@ -35623,7 +35627,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>308</v>
       </c>
@@ -35641,7 +35645,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>310</v>
       </c>
@@ -35659,7 +35663,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>318</v>
       </c>
@@ -35677,7 +35681,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>331</v>
       </c>
@@ -35695,7 +35699,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>333</v>
       </c>
@@ -35713,7 +35717,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>347</v>
       </c>
@@ -35731,7 +35735,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>372</v>
       </c>
@@ -35749,7 +35753,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>398</v>
       </c>
@@ -35767,7 +35771,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>400</v>
       </c>
@@ -35785,7 +35789,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>406</v>
       </c>
@@ -35803,7 +35807,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>415</v>
       </c>
@@ -35821,7 +35825,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>499</v>
       </c>
@@ -35839,7 +35843,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>515</v>
       </c>
@@ -35857,7 +35861,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>533</v>
       </c>
@@ -35875,7 +35879,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>549</v>
       </c>
@@ -35893,7 +35897,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>619</v>
       </c>
@@ -35911,7 +35915,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>637</v>
       </c>
@@ -35929,7 +35933,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>643</v>
       </c>
@@ -35947,7 +35951,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>645</v>
       </c>
@@ -35965,7 +35969,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>655</v>
       </c>
@@ -35983,7 +35987,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>683</v>
       </c>
@@ -36001,7 +36005,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>703</v>
       </c>
@@ -36019,7 +36023,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>736</v>
       </c>
@@ -36037,7 +36041,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>744</v>
       </c>
@@ -36055,7 +36059,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>778</v>
       </c>
@@ -36073,7 +36077,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>782</v>
       </c>
@@ -36091,7 +36095,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>798</v>
       </c>
@@ -36109,7 +36113,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>814</v>
       </c>
@@ -36127,7 +36131,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>946</v>
       </c>
@@ -36145,7 +36149,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>986</v>
       </c>
@@ -36163,7 +36167,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1011</v>
       </c>
@@ -36181,7 +36185,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1029</v>
       </c>
@@ -36199,7 +36203,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1053</v>
       </c>
@@ -36217,7 +36221,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1065</v>
       </c>
@@ -36235,7 +36239,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1067</v>
       </c>
@@ -36253,7 +36257,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1087</v>
       </c>
@@ -36271,7 +36275,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1125</v>
       </c>
@@ -36289,7 +36293,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1145</v>
       </c>
@@ -36307,7 +36311,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1149</v>
       </c>
@@ -36325,7 +36329,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1171</v>
       </c>
@@ -36343,7 +36347,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1204</v>
       </c>
@@ -36361,7 +36365,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1228</v>
       </c>
@@ -36379,7 +36383,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1252</v>
       </c>
@@ -36397,7 +36401,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>1303</v>
       </c>
@@ -36415,7 +36419,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>1335</v>
       </c>
@@ -36433,7 +36437,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>1362</v>
       </c>
@@ -36451,7 +36455,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>1400</v>
       </c>
@@ -36469,7 +36473,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>1425</v>
       </c>
@@ -36487,7 +36491,7 @@
         <v>7.360157016683023E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>23</v>
       </c>
@@ -36505,7 +36509,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>25</v>
       </c>
@@ -36523,7 +36527,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>78</v>
       </c>
@@ -36541,7 +36545,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>98</v>
       </c>
@@ -36559,7 +36563,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>102</v>
       </c>
@@ -36577,7 +36581,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>108</v>
       </c>
@@ -36595,7 +36599,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>130</v>
       </c>
@@ -36613,7 +36617,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>160</v>
       </c>
@@ -36631,7 +36635,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>273</v>
       </c>
@@ -36649,7 +36653,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>306</v>
       </c>
@@ -36667,7 +36671,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>314</v>
       </c>
@@ -36685,7 +36689,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>345</v>
       </c>
@@ -36703,7 +36707,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>355</v>
       </c>
@@ -36721,7 +36725,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>368</v>
       </c>
@@ -36739,7 +36743,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>370</v>
       </c>
@@ -36757,7 +36761,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>417</v>
       </c>
@@ -36775,7 +36779,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>429</v>
       </c>
@@ -36793,7 +36797,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>432</v>
       </c>
@@ -36811,7 +36815,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>440</v>
       </c>
@@ -36829,7 +36833,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>442</v>
       </c>
@@ -36847,7 +36851,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>450</v>
       </c>
@@ -36865,7 +36869,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>452</v>
       </c>
@@ -36883,7 +36887,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>460</v>
       </c>
@@ -36901,7 +36905,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>474</v>
       </c>
@@ -36919,7 +36923,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>478</v>
       </c>
@@ -36937,7 +36941,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>486</v>
       </c>
@@ -36955,7 +36959,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>488</v>
       </c>
@@ -36973,7 +36977,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>497</v>
       </c>
@@ -36991,7 +36995,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>504</v>
       </c>
@@ -37009,7 +37013,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>511</v>
       </c>
@@ -37027,7 +37031,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>517</v>
       </c>
@@ -37045,7 +37049,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>521</v>
       </c>
@@ -37063,7 +37067,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>523</v>
       </c>
@@ -37081,7 +37085,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>527</v>
       </c>
@@ -37099,7 +37103,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>531</v>
       </c>
@@ -37117,7 +37121,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>535</v>
       </c>
@@ -37135,7 +37139,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>539</v>
       </c>
@@ -37153,7 +37157,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>541</v>
       </c>
@@ -37171,7 +37175,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>543</v>
       </c>
@@ -37189,7 +37193,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>547</v>
       </c>
@@ -37207,7 +37211,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>551</v>
       </c>
@@ -37225,7 +37229,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>553</v>
       </c>
@@ -37243,7 +37247,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>555</v>
       </c>
@@ -37261,7 +37265,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>559</v>
       </c>
@@ -37279,7 +37283,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>563</v>
       </c>
@@ -37297,7 +37301,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>565</v>
       </c>
@@ -37315,7 +37319,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>567</v>
       </c>
@@ -37333,7 +37337,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>569</v>
       </c>
@@ -37351,7 +37355,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>571</v>
       </c>
@@ -37369,7 +37373,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>573</v>
       </c>
@@ -37387,7 +37391,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>577</v>
       </c>
@@ -37405,7 +37409,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>595</v>
       </c>
@@ -37423,7 +37427,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>599</v>
       </c>
@@ -37441,7 +37445,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>623</v>
       </c>
@@ -37459,7 +37463,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>639</v>
       </c>
@@ -37477,7 +37481,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>665</v>
       </c>
@@ -37495,7 +37499,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>671</v>
       </c>
@@ -37513,7 +37517,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>673</v>
       </c>
@@ -37531,7 +37535,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>674</v>
       </c>
@@ -37549,7 +37553,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>675</v>
       </c>
@@ -37567,7 +37571,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>677</v>
       </c>
@@ -37585,7 +37589,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>695</v>
       </c>
@@ -37603,7 +37607,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>711</v>
       </c>
@@ -37621,7 +37625,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>719</v>
       </c>
@@ -37639,7 +37643,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>721</v>
       </c>
@@ -37657,7 +37661,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>724</v>
       </c>
@@ -37675,7 +37679,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>746</v>
       </c>
@@ -37693,7 +37697,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>748</v>
       </c>
@@ -37711,7 +37715,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>768</v>
       </c>
@@ -37729,7 +37733,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>780</v>
       </c>
@@ -37747,7 +37751,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>786</v>
       </c>
@@ -37765,7 +37769,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>792</v>
       </c>
@@ -37783,7 +37787,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>802</v>
       </c>
@@ -37801,7 +37805,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>804</v>
       </c>
@@ -37819,7 +37823,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>810</v>
       </c>
@@ -37837,7 +37841,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>835</v>
       </c>
@@ -37855,7 +37859,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>858</v>
       </c>
@@ -37873,7 +37877,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>860</v>
       </c>
@@ -37891,7 +37895,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>864</v>
       </c>
@@ -37909,7 +37913,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>875</v>
       </c>
@@ -37927,7 +37931,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>885</v>
       </c>
@@ -37945,7 +37949,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>887</v>
       </c>
@@ -37963,7 +37967,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>890</v>
       </c>
@@ -37981,7 +37985,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>917</v>
       </c>
@@ -37999,7 +38003,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>919</v>
       </c>
@@ -38017,7 +38021,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>921</v>
       </c>
@@ -38035,7 +38039,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>930</v>
       </c>
@@ -38053,7 +38057,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>937</v>
       </c>
@@ -38071,7 +38075,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>944</v>
       </c>
@@ -38089,7 +38093,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>969</v>
       </c>
@@ -38107,7 +38111,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>992</v>
       </c>
@@ -38125,7 +38129,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>1007</v>
       </c>
@@ -38143,7 +38147,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>1013</v>
       </c>
@@ -38161,7 +38165,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>1021</v>
       </c>
@@ -38179,7 +38183,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>1023</v>
       </c>
@@ -38197,7 +38201,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>1035</v>
       </c>
@@ -38215,7 +38219,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>1061</v>
       </c>
@@ -38233,7 +38237,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>1073</v>
       </c>
@@ -38251,7 +38255,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>1083</v>
       </c>
@@ -38269,7 +38273,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>1089</v>
       </c>
@@ -38287,7 +38291,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>1091</v>
       </c>
@@ -38305,7 +38309,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>1098</v>
       </c>
@@ -38323,7 +38327,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>1106</v>
       </c>
@@ -38341,7 +38345,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>1129</v>
       </c>
@@ -38359,7 +38363,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>1160</v>
       </c>
@@ -38377,7 +38381,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1168</v>
       </c>
@@ -38395,7 +38399,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>1170</v>
       </c>
@@ -38413,7 +38417,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>1173</v>
       </c>
@@ -38431,7 +38435,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1190</v>
       </c>
@@ -38449,7 +38453,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>1196</v>
       </c>
@@ -38467,7 +38471,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1208</v>
       </c>
@@ -38485,7 +38489,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>1212</v>
       </c>
@@ -38503,7 +38507,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1236</v>
       </c>
@@ -38521,7 +38525,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1238</v>
       </c>
@@ -38539,7 +38543,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>1256</v>
       </c>
@@ -38557,7 +38561,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1263</v>
       </c>
@@ -38575,7 +38579,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>1269</v>
       </c>
@@ -38593,7 +38597,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>1273</v>
       </c>
@@ -38611,7 +38615,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>1295</v>
       </c>
@@ -38629,7 +38633,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>1297</v>
       </c>
@@ -38647,7 +38651,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>1305</v>
       </c>
@@ -38665,7 +38669,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>1309</v>
       </c>
@@ -38683,7 +38687,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1317</v>
       </c>
@@ -38701,7 +38705,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>1327</v>
       </c>
@@ -38719,7 +38723,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1331</v>
       </c>
@@ -38737,7 +38741,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>1339</v>
       </c>
@@ -38755,7 +38759,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1341</v>
       </c>
@@ -38773,7 +38777,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1360</v>
       </c>
@@ -38791,7 +38795,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1366</v>
       </c>
@@ -38809,7 +38813,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>1368</v>
       </c>
@@ -38827,7 +38831,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1369</v>
       </c>
@@ -38845,7 +38849,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>1370</v>
       </c>
@@ -38863,7 +38867,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>1392</v>
       </c>
@@ -38881,7 +38885,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>1396</v>
       </c>
@@ -38899,7 +38903,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>1408</v>
       </c>
@@ -38917,7 +38921,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>1414</v>
       </c>
@@ -38935,7 +38939,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>1416</v>
       </c>
@@ -38953,7 +38957,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>1418</v>
       </c>
@@ -38971,7 +38975,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>1421</v>
       </c>
@@ -38989,7 +38993,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>1423</v>
       </c>
@@ -39007,7 +39011,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>1435</v>
       </c>
@@ -39025,7 +39029,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>1458</v>
       </c>
@@ -39043,7 +39047,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1473</v>
       </c>
@@ -39061,7 +39065,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>1475</v>
       </c>
@@ -39079,7 +39083,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>1477</v>
       </c>
@@ -39097,7 +39101,7 @@
         <v>4.9067713444553487E-3</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>43</v>
       </c>
@@ -39115,7 +39119,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>59</v>
       </c>
@@ -39133,7 +39137,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>61</v>
       </c>
@@ -39151,7 +39155,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>64</v>
       </c>
@@ -39169,7 +39173,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>76</v>
       </c>
@@ -39187,7 +39191,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>82</v>
       </c>
@@ -39205,7 +39209,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>188</v>
       </c>
@@ -39223,7 +39227,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>206</v>
       </c>
@@ -39241,7 +39245,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>232</v>
       </c>
@@ -39259,7 +39263,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>234</v>
       </c>
@@ -39277,7 +39281,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>271</v>
       </c>
@@ -39295,7 +39299,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>275</v>
       </c>
@@ -39313,7 +39317,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>279</v>
       </c>
@@ -39331,7 +39335,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>285</v>
       </c>
@@ -39349,7 +39353,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>289</v>
       </c>
@@ -39367,7 +39371,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>299</v>
       </c>
@@ -39385,7 +39389,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>301</v>
       </c>
@@ -39403,7 +39407,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>304</v>
       </c>
@@ -39421,7 +39425,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>312</v>
       </c>
@@ -39439,7 +39443,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>326</v>
       </c>
@@ -39457,7 +39461,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>328</v>
       </c>
@@ -39475,7 +39479,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>329</v>
       </c>
@@ -39493,7 +39497,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>334</v>
       </c>
@@ -39511,7 +39515,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>336</v>
       </c>
@@ -39529,7 +39533,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>337</v>
       </c>
@@ -39547,7 +39551,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>339</v>
       </c>
@@ -39565,7 +39569,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>340</v>
       </c>
@@ -39583,7 +39587,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>341</v>
       </c>
@@ -39601,7 +39605,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>342</v>
       </c>
@@ -39619,7 +39623,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>343</v>
       </c>
@@ -39637,7 +39641,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>344</v>
       </c>
@@ -39655,7 +39659,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>349</v>
       </c>
@@ -39673,7 +39677,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>357</v>
       </c>
@@ -39691,7 +39695,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>359</v>
       </c>
@@ -39709,7 +39713,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>362</v>
       </c>
@@ -39727,7 +39731,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>376</v>
       </c>
@@ -39745,7 +39749,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>410</v>
       </c>
@@ -39763,7 +39767,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>412</v>
       </c>
@@ -39781,7 +39785,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>423</v>
       </c>
@@ -39799,7 +39803,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>425</v>
       </c>
@@ -39817,7 +39821,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>426</v>
       </c>
@@ -39835,7 +39839,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>434</v>
       </c>
@@ -39853,7 +39857,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>436</v>
       </c>
@@ -39871,7 +39875,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>438</v>
       </c>
@@ -39889,7 +39893,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>445</v>
       </c>
@@ -39907,7 +39911,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>447</v>
       </c>
@@ -39925,7 +39929,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>454</v>
       </c>
@@ -39943,7 +39947,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>462</v>
       </c>
@@ -39961,7 +39965,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>464</v>
       </c>
@@ -39979,7 +39983,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>468</v>
       </c>
@@ -39997,7 +40001,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>480</v>
       </c>
@@ -40015,7 +40019,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>494</v>
       </c>
@@ -40033,7 +40037,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>496</v>
       </c>
@@ -40051,7 +40055,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>501</v>
       </c>
@@ -40069,7 +40073,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>503</v>
       </c>
@@ -40087,7 +40091,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="533" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>508</v>
       </c>
@@ -40105,7 +40109,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>510</v>
       </c>
@@ -40123,7 +40127,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>519</v>
       </c>
@@ -40141,7 +40145,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>545</v>
       </c>
@@ -40159,7 +40163,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>557</v>
       </c>
@@ -40177,7 +40181,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>575</v>
       </c>
@@ -40195,7 +40199,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>587</v>
       </c>
@@ -40213,7 +40217,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>607</v>
       </c>
@@ -40231,7 +40235,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>615</v>
       </c>
@@ -40249,7 +40253,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>621</v>
       </c>
@@ -40267,7 +40271,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>627</v>
       </c>
@@ -40285,7 +40289,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>629</v>
       </c>
@@ -40303,7 +40307,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>631</v>
       </c>
@@ -40321,7 +40325,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>649</v>
       </c>
@@ -40339,7 +40343,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>651</v>
       </c>
@@ -40357,7 +40361,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>659</v>
       </c>
@@ -40375,7 +40379,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>661</v>
       </c>
@@ -40393,7 +40397,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>663</v>
       </c>
@@ -40411,7 +40415,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>678</v>
       </c>
@@ -40429,7 +40433,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>680</v>
       </c>
@@ -40447,7 +40451,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>697</v>
       </c>
@@ -40465,7 +40469,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>713</v>
       </c>
@@ -40483,7 +40487,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>715</v>
       </c>
@@ -40501,7 +40505,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>717</v>
       </c>
@@ -40519,7 +40523,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>718</v>
       </c>
@@ -40537,7 +40541,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>728</v>
       </c>
@@ -40555,7 +40559,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>732</v>
       </c>
@@ -40573,7 +40577,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>734</v>
       </c>
@@ -40591,7 +40595,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>740</v>
       </c>
@@ -40609,7 +40613,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>752</v>
       </c>
@@ -40627,7 +40631,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>754</v>
       </c>
@@ -40645,7 +40649,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>755</v>
       </c>
@@ -40663,7 +40667,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>757</v>
       </c>
@@ -40681,7 +40685,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>761</v>
       </c>
@@ -40699,7 +40703,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>765</v>
       </c>
@@ -40717,7 +40721,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="568" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>767</v>
       </c>
@@ -40735,7 +40739,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>770</v>
       </c>
@@ -40753,7 +40757,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>772</v>
       </c>
@@ -40771,7 +40775,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>774</v>
       </c>
@@ -40789,7 +40793,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>784</v>
       </c>
@@ -40807,7 +40811,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>788</v>
       </c>
@@ -40825,7 +40829,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>800</v>
       </c>
@@ -40843,7 +40847,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>806</v>
       </c>
@@ -40861,7 +40865,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>816</v>
       </c>
@@ -40879,7 +40883,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>818</v>
       </c>
@@ -40897,7 +40901,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>820</v>
       </c>
@@ -40915,7 +40919,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>824</v>
       </c>
@@ -40933,7 +40937,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>826</v>
       </c>
@@ -40951,7 +40955,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>828</v>
       </c>
@@ -40969,7 +40973,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>830</v>
       </c>
@@ -40987,7 +40991,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>832</v>
       </c>
@@ -41005,7 +41009,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>844</v>
       </c>
@@ -41023,7 +41027,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>846</v>
       </c>
@@ -41041,7 +41045,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>847</v>
       </c>
@@ -41059,7 +41063,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>849</v>
       </c>
@@ -41077,7 +41081,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>851</v>
       </c>
@@ -41095,7 +41099,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>855</v>
       </c>
@@ -41113,7 +41117,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>857</v>
       </c>
@@ -41131,7 +41135,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>862</v>
       </c>
@@ -41149,7 +41153,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>866</v>
       </c>
@@ -41167,7 +41171,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>868</v>
       </c>
@@ -41185,7 +41189,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>872</v>
       </c>
@@ -41203,7 +41207,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>874</v>
       </c>
@@ -41221,7 +41225,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>877</v>
       </c>
@@ -41239,7 +41243,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>879</v>
       </c>
@@ -41257,7 +41261,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>888</v>
       </c>
@@ -41275,7 +41279,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>892</v>
       </c>
@@ -41293,7 +41297,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>894</v>
       </c>
@@ -41311,7 +41315,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>896</v>
       </c>
@@ -41329,7 +41333,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>898</v>
       </c>
@@ -41347,7 +41351,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>900</v>
       </c>
@@ -41365,7 +41369,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>902</v>
       </c>
@@ -41383,7 +41387,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>903</v>
       </c>
@@ -41401,7 +41405,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>911</v>
       </c>
@@ -41419,7 +41423,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>913</v>
       </c>
@@ -41437,7 +41441,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>914</v>
       </c>
@@ -41455,7 +41459,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>915</v>
       </c>
@@ -41473,7 +41477,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>922</v>
       </c>
@@ -41491,7 +41495,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>924</v>
       </c>
@@ -41509,7 +41513,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>926</v>
       </c>
@@ -41527,7 +41531,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>927</v>
       </c>
@@ -41545,7 +41549,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>929</v>
       </c>
@@ -41563,7 +41567,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>932</v>
       </c>
@@ -41581,7 +41585,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>934</v>
       </c>
@@ -41599,7 +41603,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="617" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>935</v>
       </c>
@@ -41617,7 +41621,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>939</v>
       </c>
@@ -41635,7 +41639,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>941</v>
       </c>
@@ -41653,7 +41657,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>950</v>
       </c>
@@ -41671,7 +41675,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>952</v>
       </c>
@@ -41689,7 +41693,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>954</v>
       </c>
@@ -41707,7 +41711,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>955</v>
       </c>
@@ -41725,7 +41729,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>957</v>
       </c>
@@ -41743,7 +41747,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>963</v>
       </c>
@@ -41761,7 +41765,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>965</v>
       </c>
@@ -41779,7 +41783,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>967</v>
       </c>
@@ -41797,7 +41801,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>973</v>
       </c>
@@ -41815,7 +41819,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>975</v>
       </c>
@@ -41833,7 +41837,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>977</v>
       </c>
@@ -41851,7 +41855,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>979</v>
       </c>
@@ -41869,7 +41873,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>981</v>
       </c>
@@ -41887,7 +41891,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>982</v>
       </c>
@@ -41905,7 +41909,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="634" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>984</v>
       </c>
@@ -41923,7 +41927,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>988</v>
       </c>
@@ -41941,7 +41945,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>990</v>
       </c>
@@ -41959,7 +41963,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>996</v>
       </c>
@@ -41977,7 +41981,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>998</v>
       </c>
@@ -41995,7 +41999,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>1000</v>
       </c>
@@ -42013,7 +42017,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="640" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>1001</v>
       </c>
@@ -42031,7 +42035,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>1009</v>
       </c>
@@ -42049,7 +42053,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>1015</v>
       </c>
@@ -42067,7 +42071,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>1025</v>
       </c>
@@ -42085,7 +42089,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>1031</v>
       </c>
@@ -42103,7 +42107,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>1037</v>
       </c>
@@ -42121,7 +42125,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>1045</v>
       </c>
@@ -42139,7 +42143,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>1047</v>
       </c>
@@ -42157,7 +42161,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>1048</v>
       </c>
@@ -42175,7 +42179,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>1057</v>
       </c>
@@ -42193,7 +42197,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>1059</v>
       </c>
@@ -42211,7 +42215,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="651" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>1060</v>
       </c>
@@ -42229,7 +42233,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>1070</v>
       </c>
@@ -42247,7 +42251,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>1072</v>
       </c>
@@ -42265,7 +42269,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="654" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>1077</v>
       </c>
@@ -42283,7 +42287,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>1079</v>
       </c>
@@ -42301,7 +42305,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>1093</v>
       </c>
@@ -42319,7 +42323,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>1095</v>
       </c>
@@ -42337,7 +42341,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>1097</v>
       </c>
@@ -42355,7 +42359,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>1104</v>
       </c>
@@ -42373,7 +42377,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>1108</v>
       </c>
@@ -42391,7 +42395,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>1110</v>
       </c>
@@ -42409,7 +42413,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>1112</v>
       </c>
@@ -42427,7 +42431,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>1114</v>
       </c>
@@ -42445,7 +42449,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>1116</v>
       </c>
@@ -42463,7 +42467,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>1118</v>
       </c>
@@ -42481,7 +42485,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>1120</v>
       </c>
@@ -42499,7 +42503,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="667" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>1127</v>
       </c>
@@ -42517,7 +42521,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>1131</v>
       </c>
@@ -42535,7 +42539,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>1133</v>
       </c>
@@ -42553,7 +42557,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>1135</v>
       </c>
@@ -42571,7 +42575,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>1139</v>
       </c>
@@ -42589,7 +42593,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>1141</v>
       </c>
@@ -42607,7 +42611,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>1151</v>
       </c>
@@ -42625,7 +42629,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>1153</v>
       </c>
@@ -42643,7 +42647,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>1155</v>
       </c>
@@ -42661,7 +42665,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>1158</v>
       </c>
@@ -42679,7 +42683,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>1162</v>
       </c>
@@ -42697,7 +42701,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>1166</v>
       </c>
@@ -42715,7 +42719,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>1174</v>
       </c>
@@ -42733,7 +42737,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>1176</v>
       </c>
@@ -42751,7 +42755,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>1178</v>
       </c>
@@ -42769,7 +42773,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>1184</v>
       </c>
@@ -42787,7 +42791,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>1197</v>
       </c>
@@ -42805,7 +42809,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>1199</v>
       </c>
@@ -42823,7 +42827,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>1206</v>
       </c>
@@ -42841,7 +42845,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>1210</v>
       </c>
@@ -42859,7 +42863,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>1216</v>
       </c>
@@ -42877,7 +42881,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>1218</v>
       </c>
@@ -42895,7 +42899,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>1220</v>
       </c>
@@ -42913,7 +42917,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>1222</v>
       </c>
@@ -42931,7 +42935,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="691" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>1226</v>
       </c>
@@ -42949,7 +42953,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>1230</v>
       </c>
@@ -42967,7 +42971,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>1232</v>
       </c>
@@ -42985,7 +42989,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>1242</v>
       </c>
@@ -43003,7 +43007,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>1244</v>
       </c>
@@ -43021,7 +43025,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>1246</v>
       </c>
@@ -43039,7 +43043,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>1248</v>
       </c>
@@ -43057,7 +43061,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>1250</v>
       </c>
@@ -43075,7 +43079,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>1258</v>
       </c>
@@ -43093,7 +43097,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>1262</v>
       </c>
@@ -43111,7 +43115,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>1265</v>
       </c>
@@ -43129,7 +43133,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>1267</v>
       </c>
@@ -43147,7 +43151,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>1271</v>
       </c>
@@ -43165,7 +43169,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>1275</v>
       </c>
@@ -43183,7 +43187,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>1277</v>
       </c>
@@ -43201,7 +43205,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>1281</v>
       </c>
@@ -43219,7 +43223,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>1283</v>
       </c>
@@ -43237,7 +43241,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>1285</v>
       </c>
@@ -43255,7 +43259,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>1287</v>
       </c>
@@ -43273,7 +43277,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>1289</v>
       </c>
@@ -43291,7 +43295,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>1291</v>
       </c>
@@ -43309,7 +43313,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>1293</v>
       </c>
@@ -43327,7 +43331,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="713" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>1299</v>
       </c>
@@ -43345,7 +43349,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>1307</v>
       </c>
@@ -43363,7 +43367,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>1311</v>
       </c>
@@ -43381,7 +43385,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>1315</v>
       </c>
@@ -43399,7 +43403,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>1319</v>
       </c>
@@ -43417,7 +43421,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>1321</v>
       </c>
@@ -43435,7 +43439,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>1323</v>
       </c>
@@ -43453,7 +43457,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>1325</v>
       </c>
@@ -43471,7 +43475,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>1329</v>
       </c>
@@ -43489,7 +43493,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>1333</v>
       </c>
@@ -43507,7 +43511,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>1343</v>
       </c>
@@ -43525,7 +43529,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>1345</v>
       </c>
@@ -43543,7 +43547,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>1347</v>
       </c>
@@ -43561,7 +43565,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="726" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>1349</v>
       </c>
@@ -43579,7 +43583,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>1351</v>
       </c>
@@ -43597,7 +43601,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>1353</v>
       </c>
@@ -43615,7 +43619,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>1354</v>
       </c>
@@ -43633,7 +43637,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="730" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>1356</v>
       </c>
@@ -43651,7 +43655,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>1358</v>
       </c>
@@ -43669,7 +43673,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>1364</v>
       </c>
@@ -43687,7 +43691,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>1371</v>
       </c>
@@ -43705,7 +43709,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>1373</v>
       </c>
@@ -43723,7 +43727,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>1375</v>
       </c>
@@ -43741,7 +43745,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>1377</v>
       </c>
@@ -43759,7 +43763,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>1379</v>
       </c>
@@ -43777,7 +43781,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>1381</v>
       </c>
@@ -43795,7 +43799,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>1383</v>
       </c>
@@ -43813,7 +43817,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>1385</v>
       </c>
@@ -43831,7 +43835,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>1387</v>
       </c>
@@ -43849,7 +43853,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>1389</v>
       </c>
@@ -43867,7 +43871,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>1391</v>
       </c>
@@ -43885,7 +43889,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="744" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>1394</v>
       </c>
@@ -43903,7 +43907,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>1398</v>
       </c>
@@ -43921,7 +43925,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>1402</v>
       </c>
@@ -43939,7 +43943,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>1404</v>
       </c>
@@ -43957,7 +43961,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>1405</v>
       </c>
@@ -43975,7 +43979,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>1406</v>
       </c>
@@ -43993,7 +43997,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>1410</v>
       </c>
@@ -44011,7 +44015,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>1412</v>
       </c>
@@ -44029,7 +44033,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>1419</v>
       </c>
@@ -44047,7 +44051,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>1427</v>
       </c>
@@ -44065,7 +44069,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>1429</v>
       </c>
@@ -44083,7 +44087,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="755" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>1430</v>
       </c>
@@ -44101,7 +44105,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>1431</v>
       </c>
@@ -44119,7 +44123,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>1432</v>
       </c>
@@ -44137,7 +44141,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="758" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>1434</v>
       </c>
@@ -44155,7 +44159,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>1437</v>
       </c>
@@ -44173,7 +44177,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>1439</v>
       </c>
@@ -44191,7 +44195,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>1441</v>
       </c>
@@ -44209,7 +44213,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>1443</v>
       </c>
@@ -44227,7 +44231,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>1445</v>
       </c>
@@ -44245,7 +44249,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>1447</v>
       </c>
@@ -44263,7 +44267,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>1448</v>
       </c>
@@ -44281,7 +44285,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>1450</v>
       </c>
@@ -44299,7 +44303,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>1452</v>
       </c>
@@ -44317,7 +44321,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>1454</v>
       </c>
@@ -44335,7 +44339,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>1455</v>
       </c>
@@ -44353,7 +44357,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>1457</v>
       </c>
@@ -44367,11 +44371,11 @@
         <v>1</v>
       </c>
       <c r="E770">
-        <f t="shared" ref="E770:E833" si="12">D770*100/40760</f>
+        <f t="shared" ref="E770:E778" si="12">D770*100/40760</f>
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>1460</v>
       </c>
@@ -44389,7 +44393,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>1462</v>
       </c>
@@ -44407,7 +44411,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>1464</v>
       </c>
@@ -44425,7 +44429,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>1465</v>
       </c>
@@ -44443,7 +44447,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>1466</v>
       </c>
@@ -44461,7 +44465,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>1468</v>
       </c>
@@ -44479,7 +44483,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>1469</v>
       </c>
@@ -44497,7 +44501,7 @@
         <v>2.4533856722276743E-3</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>1471</v>
       </c>
@@ -44529,13 +44533,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -44552,7 +44556,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -44570,7 +44574,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -44585,7 +44589,7 @@
         <v>16.982335623159962</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -44600,7 +44604,7 @@
         <v>11.268400392541707</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-1</v>
       </c>
@@ -44615,7 +44619,7 @@
         <v>9.9116781157998037</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>19</v>
       </c>
@@ -44630,7 +44634,7 @@
         <v>2.6619234543670265</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>36</v>
       </c>
@@ -44645,7 +44649,7 @@
         <v>2.5490677134445536</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -44660,7 +44664,7 @@
         <v>2.4067713444553487</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>31</v>
       </c>
@@ -44675,7 +44679,7 @@
         <v>2.1344455348380769</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>27</v>
       </c>
@@ -44690,7 +44694,7 @@
         <v>1.2929342492639844</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -44705,7 +44709,7 @@
         <v>1.2561334641805693</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>38</v>
       </c>
@@ -44720,7 +44724,7 @@
         <v>0.94946025515210997</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>21</v>
       </c>
@@ -44735,7 +44739,7 @@
         <v>0.80471050049067716</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>37</v>
       </c>
@@ -44750,7 +44754,7 @@
         <v>0.7163886162904809</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>16</v>
       </c>
@@ -44765,7 +44769,7 @@
         <v>0.70902845927379776</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>17</v>
       </c>
@@ -44780,7 +44784,7 @@
         <v>0.34102060843964671</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>35</v>
       </c>
@@ -44795,7 +44799,7 @@
         <v>0.28949950932286556</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>24</v>
       </c>
@@ -44810,7 +44814,7 @@
         <v>0.27723258096172715</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26</v>
       </c>
@@ -44825,7 +44829,7 @@
         <v>0.27232580961727182</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28</v>
       </c>
@@ -44840,7 +44844,7 @@
         <v>0.26741903827281649</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>23</v>
       </c>
@@ -44855,7 +44859,7 @@
         <v>0.25269872423945045</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>33</v>
       </c>
@@ -44870,7 +44874,7 @@
         <v>0.25024533856722275</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>25</v>
       </c>
@@ -44885,7 +44889,7 @@
         <v>0.21589793915603533</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>30</v>
       </c>
@@ -44900,7 +44904,7 @@
         <v>0.19381746810598627</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0</v>
       </c>
@@ -44915,7 +44919,7 @@
         <v>0.14720314033366044</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>34</v>
       </c>
@@ -44930,7 +44934,7 @@
         <v>0.14229636898920511</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
@@ -44945,7 +44949,7 @@
         <v>0.13738959764474976</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -44960,7 +44964,7 @@
         <v>0.10058881256133465</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>22</v>
       </c>
@@ -44975,7 +44979,7 @@
         <v>8.5868498527968587E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -44990,7 +44994,7 @@
         <v>7.1148184494602557E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
@@ -45005,7 +45009,7 @@
         <v>7.1148184494602557E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20</v>
       </c>
@@ -45020,7 +45024,7 @@
         <v>6.3788027477919534E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -45035,7 +45039,7 @@
         <v>6.1334641805691856E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>13</v>
       </c>
@@ -45050,7 +45054,7 @@
         <v>5.3974484789008834E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -45065,7 +45069,7 @@
         <v>4.1707556427870461E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>29</v>
       </c>
@@ -45080,7 +45084,7 @@
         <v>3.6800785083415111E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10</v>
       </c>
@@ -45095,7 +45099,7 @@
         <v>2.6987242394504417E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>9</v>
       </c>
@@ -45110,7 +45114,7 @@
         <v>2.4533856722276742E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7</v>
       </c>
@@ -45125,7 +45129,7 @@
         <v>1.7173699705593719E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
@@ -45140,7 +45144,7 @@
         <v>1.4720314033366046E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>32</v>
       </c>
